--- a/TENIR A JOUR.xlsx
+++ b/TENIR A JOUR.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756888B2-BBD4-4434-AE31-16AC599038BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="28560" windowHeight="12660"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="28560" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>date</t>
   </si>
@@ -118,12 +119,15 @@
   </si>
   <si>
     <t>Besoin de chiffrement par clé entre le client et le serveur</t>
+  </si>
+  <si>
+    <t>Reception du PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -186,6 +190,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -233,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +273,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +325,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,31 +517,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="36" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +579,11 @@
       <c r="L1" s="2">
         <v>43479</v>
       </c>
+      <c r="M1" s="2">
+        <v>43486</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,8 +617,11 @@
       <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -637,17 +685,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
@@ -662,24 +710,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
